--- a/CashFlow/HBAN_cashflow.xlsx
+++ b/CashFlow/HBAN_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>319000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>367000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>642000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1032000000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-920000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-534000000.0</v>
@@ -763,10 +757,8 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>-15000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>37000000.0</v>
@@ -1061,10 +1053,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>-611000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>-394000000.0</v>
@@ -1361,10 +1351,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>1254000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1820000000.0</v>
@@ -1490,10 +1478,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>-130000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-119000000.0</v>
@@ -1796,10 +1782,8 @@
           <t>Short Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>134000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-81000000.0</v>
@@ -1925,10 +1909,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-2629000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-1973000000.0</v>
@@ -1940,7 +1922,7 @@
         <v>-151000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-1750000000.0</v>
+        <v>-1695000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>-507000000.0</v>
@@ -2054,10 +2036,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>1521000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>48000000.0</v>
@@ -2183,10 +2163,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-5937000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-9840000000.0</v>
@@ -2312,10 +2290,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-4586000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-3335000000.0</v>
@@ -2576,10 +2552,8 @@
           <t>Equity Repurchase (Preffered, Net)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>1473000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>988000000.0</v>
@@ -2765,10 +2739,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-713000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-698000000.0</v>
@@ -2894,10 +2866,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>4680000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1444000000.0</v>
@@ -3023,10 +2993,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>11505000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>13445000000.0</v>
@@ -3152,10 +3120,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>6822000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5425000000.0</v>
@@ -3281,10 +3247,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>6595000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1170000000.0</v>
@@ -3410,10 +3374,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>13417000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6595000000.0</v>
@@ -3539,10 +3501,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>90000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>77000000.0</v>
@@ -3679,7 +3639,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-459000000.0</v>
+        <v>-612000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-614000000.0</v>
@@ -3805,10 +3765,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-1546000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-891000000.0</v>
@@ -3934,10 +3892,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-2495000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-2054000000.0</v>
@@ -3949,7 +3905,7 @@
         <v>-153000000.0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>-1777000000.0</v>
+        <v>-1722000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>-619000000.0</v>
@@ -4063,10 +4019,8 @@
           <t>Dividends Paid (Preffered)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-101000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-84000000.0</v>
@@ -4192,10 +4146,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>1469000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>896000000.0</v>
@@ -4325,10 +4277,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>1473000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>896000000.0</v>
